--- a/Database/Helperland.xlsx
+++ b/Database/Helperland.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TatvaSoft\Website\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFAA9CE-2254-45F7-8E0F-DC379ECEDC62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11967E16-09CE-4346-8813-E57C514CAE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69EAE1FB-4EF3-4A24-BB01-999B2C534146}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>ColumnName</t>
   </si>
@@ -322,22 +322,6 @@
   </si>
   <si>
     <t>0- false, 1- true</t>
-  </si>
-  <si>
-    <t>TABLE 9: ContactUs</t>
-  </si>
-  <si>
-    <t>primary key, not null, indentity</t>
-  </si>
-  <si>
-    <t>1- General
-…</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -452,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -460,6 +444,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,18 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA25177-F359-4950-A32B-4F23654CF88F}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,12 +789,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -823,12 +803,12 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -845,50 +825,50 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -897,12 +877,12 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -919,66 +899,66 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -989,12 +969,12 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -1011,138 +991,138 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -1151,12 +1131,12 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -1173,144 +1153,144 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -1319,12 +1299,12 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -1341,58 +1321,58 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
@@ -1401,12 +1381,12 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
@@ -1423,68 +1403,68 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
@@ -1493,12 +1473,12 @@
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -1515,40 +1495,40 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
@@ -1559,12 +1539,12 @@
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -1581,126 +1561,29 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A78:D78"/>
+  <mergeCells count="9">
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A73:D73"/>

--- a/Database/Helperland.xlsx
+++ b/Database/Helperland.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TatvaSoft\Website\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11967E16-09CE-4346-8813-E57C514CAE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E3C38-A10E-4BBC-BA9E-8D2009A60B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69EAE1FB-4EF3-4A24-BB01-999B2C534146}"/>
   </bookViews>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA25177-F359-4950-A32B-4F23654CF88F}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
